--- a/docs/pages/tools/attachment_table_maker/excel/attachment.xlsx
+++ b/docs/pages/tools/attachment_table_maker/excel/attachment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\attachment_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA083E1-641B-4549-8E38-D65A2068A122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A9B58-F94E-41CA-AEF0-9C18C6952A00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="692">
   <si>
     <t>名前</t>
   </si>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A1346" workbookViewId="0">
+      <selection activeCell="L1367" sqref="L1367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13670,9 +13670,6 @@
       <c r="D1371" t="s">
         <v>18</v>
       </c>
-      <c r="E1371" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="1372" spans="1:5">
       <c r="D1372" t="s">
